--- a/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200322.xlsx
+++ b/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200322.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\lab\疫情可视化\每日数据更新\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15287926-4BB0-495A-AD04-CBC8C4C82703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F66968-5A92-48C8-8127-C9A846B2C4BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12565,8 +12565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AD26" sqref="AD26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
@@ -12742,10 +12742,10 @@
         <v>3287</v>
       </c>
       <c r="C2" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D2" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>3285</v>
@@ -12812,10 +12812,10 @@
         <v>3288</v>
       </c>
       <c r="C3" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D3" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>3285</v>
@@ -12866,10 +12866,10 @@
         <v>3288</v>
       </c>
       <c r="C4" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D4" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>3285</v>
@@ -12919,10 +12919,10 @@
         <v>3288</v>
       </c>
       <c r="C5" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D5" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>3285</v>
@@ -12972,10 +12972,10 @@
         <v>3288</v>
       </c>
       <c r="C6" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D6" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>3285</v>
@@ -13025,10 +13025,10 @@
         <v>3288</v>
       </c>
       <c r="C7" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D7" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>3285</v>
@@ -13078,10 +13078,10 @@
         <v>3288</v>
       </c>
       <c r="C8" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D8" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>3285</v>
@@ -13131,10 +13131,10 @@
         <v>3288</v>
       </c>
       <c r="C9" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D9" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>3285</v>
@@ -13184,10 +13184,10 @@
         <v>3288</v>
       </c>
       <c r="C10" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D10" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>3285</v>
@@ -13237,10 +13237,10 @@
         <v>3288</v>
       </c>
       <c r="C11" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D11" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>3285</v>
@@ -13290,10 +13290,10 @@
         <v>3288</v>
       </c>
       <c r="C12" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D12" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>3285</v>
@@ -13343,10 +13343,10 @@
         <v>3288</v>
       </c>
       <c r="C13" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D13" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>3285</v>
@@ -13396,10 +13396,10 @@
         <v>3288</v>
       </c>
       <c r="C14" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D14" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>3285</v>
@@ -13449,10 +13449,10 @@
         <v>3288</v>
       </c>
       <c r="C15" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D15" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>3285</v>
@@ -13502,10 +13502,10 @@
         <v>3288</v>
       </c>
       <c r="C16" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D16" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>3285</v>
@@ -13555,10 +13555,10 @@
         <v>3288</v>
       </c>
       <c r="C17" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D17" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>3285</v>
@@ -13608,10 +13608,10 @@
         <v>3288</v>
       </c>
       <c r="C18" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D18" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>3285</v>
@@ -13661,10 +13661,10 @@
         <v>3288</v>
       </c>
       <c r="C19" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D19" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>3285</v>
@@ -13714,10 +13714,10 @@
         <v>3288</v>
       </c>
       <c r="C20" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D20" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>3285</v>
@@ -13767,10 +13767,10 @@
         <v>3288</v>
       </c>
       <c r="C21" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D21" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>3285</v>
@@ -13823,10 +13823,10 @@
         <v>3316</v>
       </c>
       <c r="C22" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D22" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>3285</v>
@@ -13876,10 +13876,10 @@
         <v>3316</v>
       </c>
       <c r="C23" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D23" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>3285</v>
@@ -13929,10 +13929,10 @@
         <v>3316</v>
       </c>
       <c r="C24" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D24" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>3285</v>
@@ -13982,10 +13982,10 @@
         <v>3316</v>
       </c>
       <c r="C25" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D25" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>3285</v>
@@ -14035,10 +14035,10 @@
         <v>3316</v>
       </c>
       <c r="C26" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D26" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>3285</v>
@@ -14091,10 +14091,10 @@
         <v>3316</v>
       </c>
       <c r="C27" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D27" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>3285</v>
@@ -14147,10 +14147,10 @@
         <v>3316</v>
       </c>
       <c r="C28" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D28" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>3285</v>
@@ -14203,10 +14203,10 @@
         <v>3316</v>
       </c>
       <c r="C29" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D29" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>3285</v>
@@ -14259,10 +14259,10 @@
         <v>3316</v>
       </c>
       <c r="C30" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D30" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>3285</v>
@@ -14312,10 +14312,10 @@
         <v>3316</v>
       </c>
       <c r="C31" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D31" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>3285</v>
@@ -14368,10 +14368,10 @@
         <v>3316</v>
       </c>
       <c r="C32" s="14">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D32" s="14">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>3285</v>
